--- a/public/templates/opf3.xlsx
+++ b/public/templates/opf3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AA50A-E1E5-4A30-9C8F-43BEBEC6390B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4C719-A082-4203-A452-CB032370EA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="2850" windowWidth="13050" windowHeight="11835" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="OPO" sheetId="1" r:id="rId1"/>
@@ -156,23 +156,23 @@
     <t>Ref:  {number_ipo}</t>
   </si>
   <si>
+    <t xml:space="preserve">Total PO Amount </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Attr: </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>Accounts Payable</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Total PO Amount </t>
   </si>
 </sst>
 </file>
@@ -188,6 +188,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,23 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -297,7 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -305,10 +297,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,182 +514,167 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,56 +688,62 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +778,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>288419</xdr:colOff>
+      <xdr:colOff>586076</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -832,7 +824,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>385822</xdr:colOff>
+      <xdr:colOff>385823</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161559</xdr:rowOff>
     </xdr:to>
@@ -1169,16 +1161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B4622-FC68-489E-B7E8-98F35F2BF832}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="191" zoomScaleNormal="100" zoomScalePageLayoutView="191" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="128" zoomScaleNormal="100" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
@@ -1198,68 +1189,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,205 +1265,205 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="69" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="40" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="28"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="69" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="70" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="70" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="71"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="12"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="12"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="81" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="82"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="86"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="12"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="85" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="76" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="77" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="78"/>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="79" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="58" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="11"/>
@@ -1487,10 +1478,10 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="81" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="6"/>
@@ -1500,8 +1491,8 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="82" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="6"/>
@@ -1511,8 +1502,8 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="76"/>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="83" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="5"/>
@@ -1522,166 +1513,166 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="85"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="46">
         <v>0</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="49" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="87"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="49"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="18"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
@@ -1857,6 +1848,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G34:I42"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B19:C20"/>
     <mergeCell ref="B2:H7"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B28:H28"/>
@@ -1870,23 +1878,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="G34:I42"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
   </mergeCells>
   <pageMargins left="0.59375" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opf3.xlsx
+++ b/public/templates/opf3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4C719-A082-4203-A452-CB032370EA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25302003-BB50-40DF-B375-136A286DEDDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77695A3C-5086-43E9-B126-A885D32BCDA9}"/>
   </bookViews>
@@ -514,12 +514,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,9 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,20 +577,71 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,6 +664,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,33 +688,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,74 +715,67 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,21 +851,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>385823</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161559</xdr:rowOff>
+      <xdr:colOff>388466</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7F1C68-9AA2-4B51-BE68-CD5028EDE1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD48E0D2-C7C4-44A8-A5A3-CF058BC6D865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,8 +881,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4292278" y="6643386"/>
-          <a:ext cx="1639747" cy="1511939"/>
+          <a:off x="3988594" y="6429375"/>
+          <a:ext cx="1646063" cy="1518036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B4622-FC68-489E-B7E8-98F35F2BF832}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="128" zoomScaleNormal="100" zoomScalePageLayoutView="128" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="128" zoomScaleNormal="100" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,683 +1209,719 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="18"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="18"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="20"/>
+      <c r="C9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25"/>
+      <c r="A10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="72" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="28"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="72" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="72" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="65" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="26"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="24"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="65" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="11"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="39" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="43" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="38" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="38"/>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="84" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="65">
         <v>0</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="86" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="87"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="24" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="84" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="70"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="93"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="94"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="18"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G34:I42"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G33:H41"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="B15:C15"/>
